--- a/output_validation/04_pin_factor_ECE.xlsx
+++ b/output_validation/04_pin_factor_ECE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>admin1</t>
   </si>
@@ -31,31 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>MMR001</t>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>ECE</t>
   </si>
   <si>
     <t>idp</t>
@@ -482,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +519,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>10353.959</v>
@@ -566,19 +557,16 @@
       <c r="L2">
         <v>68.32132809629007</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>4928.42</v>
@@ -607,19 +595,16 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>5688.031999999999</v>
@@ -648,19 +633,16 @@
       <c r="L4">
         <v>25.39191251181519</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>9522.828</v>
@@ -689,19 +671,16 @@
       <c r="L5">
         <v>105.2005869528733</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>20673.66</v>
@@ -730,19 +709,16 @@
       <c r="L6">
         <v>101.0575035875779</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>36949.276</v>
@@ -771,19 +747,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>11413.22</v>
@@ -812,19 +785,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>8238.02</v>
@@ -853,19 +823,16 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>7796.950000000001</v>
@@ -894,19 +861,16 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>46961.25</v>
@@ -935,19 +899,16 @@
       <c r="L11">
         <v>337.8515921754906</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>9376.289999999999</v>
@@ -976,19 +937,16 @@
       <c r="L12">
         <v>756.1391264496247</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>10338.72</v>
@@ -1017,19 +975,16 @@
       <c r="L13">
         <v>40.79268646782076</v>
       </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>10345.489</v>
@@ -1058,19 +1013,16 @@
       <c r="L14">
         <v>44.36265775405025</v>
       </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>16801.022</v>
@@ -1099,19 +1051,16 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>17357.34</v>
@@ -1140,19 +1089,16 @@
       <c r="L16">
         <v>101.8241570010881</v>
       </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>9198.825999999999</v>
@@ -1181,19 +1127,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>9002.455</v>
@@ -1222,19 +1165,16 @@
       <c r="L18">
         <v>53.19159395555719</v>
       </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>8527.539999999999</v>
@@ -1262,9 +1202,6 @@
       </c>
       <c r="L19">
         <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,19 +1254,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1479.137</v>
@@ -1358,19 +1292,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>704.0600000000001</v>
@@ -1399,19 +1330,16 @@
       <c r="L3">
         <v>33.49407089082285</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>812.576</v>
@@ -1440,19 +1368,16 @@
       <c r="L4">
         <v>32.18236839150157</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1360.404</v>
@@ -1481,19 +1406,16 @@
       <c r="L5">
         <v>9.020672975149228</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>2953.380000000001</v>
@@ -1522,19 +1444,16 @@
       <c r="L6">
         <v>259.024481027705</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>5278.468000000001</v>
@@ -1563,19 +1482,16 @@
       <c r="L7">
         <v>156.0752420217703</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1630.46</v>
@@ -1604,19 +1520,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1113.85</v>
@@ -1645,19 +1558,16 @@
       <c r="L9">
         <v>63.38279791214601</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>1339.47</v>
@@ -1686,19 +1596,16 @@
       <c r="L10">
         <v>134.0188543555076</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1476.96</v>
@@ -1727,19 +1634,16 @@
       <c r="L11">
         <v>26.45173928297209</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>2400.146000000001</v>
@@ -1768,19 +1672,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>2479.62</v>
@@ -1808,9 +1709,6 @@
       </c>
       <c r="L13">
         <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,19 +1761,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>739.5685000000001</v>
@@ -1904,19 +1799,16 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>352.03</v>
@@ -1945,19 +1837,16 @@
       <c r="L3">
         <v>28.68447806958493</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>406.288</v>
@@ -1986,19 +1875,16 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>680.202</v>
@@ -2027,19 +1913,16 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1476.69</v>
@@ -2068,19 +1951,16 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>2639.234</v>
@@ -2109,19 +1989,16 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>815.23</v>
@@ -2150,19 +2027,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>556.9250000000001</v>
@@ -2191,19 +2065,16 @@
       <c r="L9">
         <v>26.22053916721142</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>669.7350000000001</v>
@@ -2232,19 +2103,16 @@
       <c r="L10">
         <v>11.59159068697863</v>
       </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>738.48</v>
@@ -2273,19 +2141,16 @@
       <c r="L11">
         <v>4.511009813874293</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1200.073</v>
@@ -2314,19 +2179,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>1239.81</v>
@@ -2354,9 +2216,6 @@
       </c>
       <c r="L13">
         <v>66.28111139250302</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2366,13 +2225,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,19 +2268,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>2215.44</v>
@@ -2449,9 +2305,6 @@
       </c>
       <c r="L2">
         <v>6.156847934557471</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/04_pin_factor_ECE.xlsx
+++ b/output_validation/04_pin_factor_ECE.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,61 +52,70 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -522,13 +531,13 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>10353.959</v>
+        <v>20673.66</v>
       </c>
       <c r="D2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>9464.241093124092</v>
+        <v>20673.66</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>889.7179068759074</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,25 +566,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>4928.42</v>
+        <v>16801.022</v>
       </c>
       <c r="D3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1455.617923196077</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3322.346046595983</v>
+        <v>16801.022</v>
       </c>
       <c r="H3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>150.4560302079413</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +601,19 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>5688.031999999999</v>
+        <v>4928.42</v>
       </c>
       <c r="D4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3812.80307023789</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1875.22892976211</v>
+        <v>4928.42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -627,31 +636,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>9522.828</v>
+        <v>46961.25</v>
       </c>
       <c r="D5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1197.747859537569</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>7190.139368777559</v>
+        <v>46961.25</v>
       </c>
       <c r="H5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>327.1536125805052</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>807.7871591043664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>20673.66</v>
+        <v>10353.959</v>
       </c>
       <c r="D6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2532.678544456954</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="G6">
-        <v>18140.98145554305</v>
+        <v>7211.161090047709</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3142.79790995229</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -697,25 +706,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>36949.276</v>
+        <v>8527.539999999999</v>
       </c>
       <c r="D7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>26810.64770095193</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7929.718501900251</v>
+        <v>8527.539999999999</v>
       </c>
       <c r="H7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2208.909797147812</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -732,31 +741,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>11413.22</v>
+        <v>17357.34</v>
       </c>
       <c r="D8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9044.052817340102</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="G8">
-        <v>1816.943072223323</v>
+        <v>14951.51811321786</v>
       </c>
       <c r="H8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>552.2241104365766</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2405.821886782139</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>8238.02</v>
+        <v>10338.72</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8238.02</v>
+        <v>10338.72</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>7796.950000000001</v>
+        <v>9376.289999999999</v>
       </c>
       <c r="D10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E10">
-        <v>5284.007418512134</v>
+        <v>3929.393323930043</v>
       </c>
       <c r="F10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G10">
-        <v>2512.942581487867</v>
+        <v>5446.896676069957</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -840,16 +849,16 @@
         <v>46961.25</v>
       </c>
       <c r="D11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>40480.90117902128</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>6480.348820978727</v>
+        <v>46961.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -872,25 +881,25 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>9376.289999999999</v>
+        <v>11413.22</v>
       </c>
       <c r="D12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="E12">
-        <v>7234.109424953288</v>
+        <v>4410.439948150709</v>
       </c>
       <c r="F12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="G12">
-        <v>1366.96886127202</v>
+        <v>7002.780051849292</v>
       </c>
       <c r="H12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>775.2117137746906</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -907,31 +916,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>10338.72</v>
+        <v>10345.489</v>
       </c>
       <c r="D13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>3076.948849388373</v>
+        <v>10345.489</v>
       </c>
       <c r="F13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6412.443032383027</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>386.5177071906082</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>462.8104110379901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,25 +951,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>10345.489</v>
+        <v>20673.66</v>
       </c>
       <c r="D14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E14">
-        <v>5746.036863228635</v>
+        <v>18897.1679835004</v>
       </c>
       <c r="F14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>4181.207683038623</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I14">
-        <v>418.244453732742</v>
+        <v>1776.492016499599</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,25 +986,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>16801.022</v>
+        <v>10353.959</v>
       </c>
       <c r="D15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E15">
-        <v>14791.74998341802</v>
+        <v>9464.241093124092</v>
       </c>
       <c r="F15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2009.272016581977</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>889.7179068759074</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1012,25 +1021,25 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>17357.34</v>
+        <v>8527.539999999999</v>
       </c>
       <c r="D16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E16">
-        <v>12095.05193564715</v>
+        <v>7794.766667635</v>
       </c>
       <c r="F16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>5262.288064352855</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>732.7733323649993</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1047,25 +1056,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>9198.825999999999</v>
+        <v>8238.02</v>
       </c>
       <c r="D17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E17">
-        <v>8564.808041418535</v>
+        <v>2433.114378167393</v>
       </c>
       <c r="F17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G17">
-        <v>634.017958581466</v>
+        <v>5553.41330056664</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>251.4923212659685</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1082,25 +1091,25 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>9002.455</v>
+        <v>36949.276</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E18">
-        <v>9002.455</v>
+        <v>10913.03671252017</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>24908.24260983922</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1127.996677640615</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1117,25 +1126,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>8527.539999999999</v>
+        <v>9198.825999999999</v>
       </c>
       <c r="D19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E19">
-        <v>6193.072135462978</v>
+        <v>2716.890199691194</v>
       </c>
       <c r="F19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G19">
-        <v>2334.467864537022</v>
+        <v>6201.111754766099</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>280.8240455427086</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,31 +1203,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>1479.137</v>
+        <v>2400.146000000001</v>
       </c>
       <c r="D2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="E2">
-        <v>1033.381067735415</v>
+        <v>1728.872216365984</v>
       </c>
       <c r="F2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="G2">
-        <v>193.6629497219292</v>
+        <v>671.2737836340165</v>
       </c>
       <c r="H2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>252.0929825426555</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1229,31 +1238,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>704.0600000000001</v>
+        <v>6708.75</v>
       </c>
       <c r="D3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>328.9030505662966</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>307.180071886209</v>
+        <v>6708.75</v>
       </c>
       <c r="H3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>67.97687754749451</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1264,31 +1273,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>812.576</v>
+        <v>2953.380000000001</v>
       </c>
       <c r="D4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="E4">
-        <v>447.3235406198716</v>
+        <v>793.3875114134935</v>
       </c>
       <c r="F4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="G4">
-        <v>365.2524593801286</v>
+        <v>1688.170745232404</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>471.8217433541023</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>1360.404</v>
+        <v>1479.137</v>
       </c>
       <c r="D5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>321.3622428432569</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>984.6067546391238</v>
+        <v>1479.137</v>
       </c>
       <c r="H5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>54.43500251761932</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1334,31 +1343,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>2953.380000000001</v>
+        <v>1360.404</v>
       </c>
       <c r="D6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>178.4835256094012</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2535.065709519629</v>
+        <v>1360.404</v>
       </c>
       <c r="H6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>239.83076487097</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1369,66 +1378,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>5278.468000000001</v>
+        <v>812.576</v>
       </c>
       <c r="D7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="E7">
-        <v>876.1274475573299</v>
+        <v>445.3219896050505</v>
       </c>
       <c r="F7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="G7">
-        <v>3412.663042361057</v>
+        <v>154.2545956694279</v>
       </c>
       <c r="H7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="I7">
-        <v>989.6775100816145</v>
+        <v>147.2981422558231</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>65.70127246969857</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>1630.46</v>
+        <v>1476.96</v>
       </c>
       <c r="D8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1366.654452583615</v>
+        <v>1476.96</v>
       </c>
       <c r="F8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>200.6239464533167</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>63.18160096306815</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,31 +1448,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>1113.85</v>
+        <v>2953.380000000001</v>
       </c>
       <c r="D9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E9">
-        <v>372.9971037569251</v>
+        <v>2063.343001918295</v>
       </c>
       <c r="F9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G9">
-        <v>565.639449417096</v>
+        <v>386.6851295382046</v>
       </c>
       <c r="H9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I9">
-        <v>175.2134468259791</v>
+        <v>503.3518685435007</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1474,31 +1483,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>1339.47</v>
+        <v>1479.137</v>
       </c>
       <c r="D10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E10">
-        <v>676.019154283363</v>
+        <v>1033.381067735415</v>
       </c>
       <c r="F10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G10">
-        <v>479.9624515642852</v>
+        <v>193.6629497219292</v>
       </c>
       <c r="H10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I10">
-        <v>183.488394152352</v>
+        <v>252.0929825426555</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1509,66 +1518,66 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>1476.96</v>
+        <v>1218.22</v>
       </c>
       <c r="D11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E11">
-        <v>547.8070391057835</v>
+        <v>851.0945803780431</v>
       </c>
       <c r="F11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G11">
-        <v>673.2588740580554</v>
+        <v>159.5011676472488</v>
       </c>
       <c r="H11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I11">
-        <v>210.0965151189855</v>
+        <v>207.6242519747081</v>
       </c>
       <c r="J11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>45.79757171717594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>2400.146000000001</v>
+        <v>1176.86</v>
       </c>
       <c r="D12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E12">
-        <v>964.2760851986521</v>
+        <v>549.7725251959376</v>
       </c>
       <c r="F12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G12">
-        <v>1435.869914801348</v>
+        <v>513.4618347868135</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>113.6256400172491</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1579,36 +1588,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>2479.62</v>
+        <v>5278.468000000001</v>
       </c>
       <c r="D13">
-        <v>0.07542672232317281</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E13">
-        <v>187.0296092069858</v>
+        <v>2465.846983945372</v>
       </c>
       <c r="F13">
-        <v>0.8690003027501599</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G13">
-        <v>2154.790530705352</v>
+        <v>2302.98579622341</v>
       </c>
       <c r="H13">
-        <v>0.05557297492666727</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I13">
-        <v>137.7998600876627</v>
+        <v>509.6352198312194</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1314.118</v>
+      </c>
+      <c r="D14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="E14">
+        <v>613.8928770333218</v>
+      </c>
+      <c r="F14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="G14">
+        <v>573.3472455571417</v>
+      </c>
+      <c r="H14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="I14">
+        <v>126.8778774095367</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1662,25 +1706,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>739.5685000000001</v>
+        <v>352.03</v>
       </c>
       <c r="D2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>421.3922334734028</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>318.1762665265973</v>
+        <v>352.03</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1697,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>352.03</v>
+        <v>3354.375</v>
       </c>
       <c r="D3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39.63239930971374</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>302.2155292957963</v>
+        <v>3354.375</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1724,39 +1768,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>10.18207139448995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>406.288</v>
+        <v>1476.69</v>
       </c>
       <c r="D4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="E4">
-        <v>314.588539949321</v>
+        <v>732.2127281450213</v>
       </c>
       <c r="F4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="G4">
-        <v>91.69946005067901</v>
+        <v>297.7534157190452</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>446.7238561359339</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1767,31 +1811,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>680.202</v>
+        <v>739.5685000000001</v>
       </c>
       <c r="D5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>308.4721040639391</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>319.2504824042853</v>
+        <v>739.5685000000001</v>
       </c>
       <c r="H5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>52.47941353177564</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1802,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>1476.69</v>
+        <v>609.11</v>
       </c>
       <c r="D6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="E6">
-        <v>87.60726955938205</v>
+        <v>511.9648015233501</v>
       </c>
       <c r="F6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="G6">
-        <v>1389.082730440618</v>
+        <v>97.14519847664999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1837,31 +1881,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>2639.234</v>
+        <v>680.202</v>
       </c>
       <c r="D7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E7">
-        <v>1084.993849164106</v>
+        <v>345.4810373888521</v>
       </c>
       <c r="F7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
-        <v>742.5826316962258</v>
+        <v>334.720962611148</v>
       </c>
       <c r="H7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>811.6575191396686</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1875,22 +1919,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>815.23</v>
+        <v>1239.81</v>
       </c>
       <c r="D8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="E8">
-        <v>503.3965611101615</v>
+        <v>700.3249535401675</v>
       </c>
       <c r="F8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="G8">
-        <v>311.8334388898385</v>
+        <v>539.4850464598325</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1907,31 +1951,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>556.9250000000001</v>
+        <v>3354.375</v>
       </c>
       <c r="D9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="E9">
-        <v>61.36321845289569</v>
+        <v>1849.699815547525</v>
       </c>
       <c r="F9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="G9">
-        <v>425.2125335480027</v>
+        <v>1504.675184452476</v>
       </c>
       <c r="H9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>70.34924799910173</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1942,31 +1986,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>669.7350000000001</v>
+        <v>1476.69</v>
       </c>
       <c r="D10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E10">
-        <v>319.3432936707715</v>
+        <v>841.3902123303511</v>
       </c>
       <c r="F10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G10">
-        <v>252.5629000526445</v>
+        <v>635.2997876696493</v>
       </c>
       <c r="H10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>97.82880627658409</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1977,31 +2021,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>738.48</v>
+        <v>739.5685000000001</v>
       </c>
       <c r="D11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E11">
-        <v>373.9625542977832</v>
+        <v>421.3922334734028</v>
       </c>
       <c r="F11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G11">
-        <v>335.5284851038849</v>
+        <v>318.1762665265973</v>
       </c>
       <c r="H11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>28.98896059833182</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2012,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>1200.073</v>
+        <v>609.11</v>
       </c>
       <c r="D12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E12">
-        <v>732.2790766121258</v>
+        <v>347.059431724018</v>
       </c>
       <c r="F12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G12">
-        <v>467.7939233878745</v>
+        <v>262.0505682759821</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2047,37 +2091,107 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>1239.81</v>
+        <v>588.4300000000001</v>
       </c>
       <c r="D13">
-        <v>0.4427434746950732</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="E13">
-        <v>548.9177873616987</v>
+        <v>66.24689011111228</v>
       </c>
       <c r="F13">
-        <v>0.4344131602771897</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="G13">
-        <v>538.5897802432627</v>
+        <v>505.1634346604705</v>
       </c>
       <c r="H13">
-        <v>0.1228433650277372</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>152.3024323950388</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02892387408598686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.01967522841725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2639.234</v>
+      </c>
+      <c r="D14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E14">
+        <v>297.1314256164902</v>
+      </c>
+      <c r="F14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G14">
+        <v>2265.765702484055</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K14">
+        <v>76.33687189945546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>657.0590000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E15">
+        <v>73.97331096225095</v>
+      </c>
+      <c r="F15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G15">
+        <v>564.0809972546847</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K15">
+        <v>19.00469178306444</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,36 +2244,211 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>4430.07</v>
+      </c>
+      <c r="D2">
+        <v>0.2304031860173474</v>
+      </c>
+      <c r="E2">
+        <v>1020.70224227987</v>
+      </c>
+      <c r="F2">
+        <v>0.4969275497660341</v>
+      </c>
+      <c r="G2">
+        <v>2201.423830392015</v>
+      </c>
+      <c r="H2">
+        <v>0.2726692642166184</v>
+      </c>
+      <c r="I2">
+        <v>1207.943927328115</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2218.7055</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2218.7055</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1827.33</v>
+      </c>
+      <c r="D4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="E4">
+        <v>1428.989547587782</v>
+      </c>
+      <c r="F4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="G4">
+        <v>398.3404524122181</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>2040.606</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2040.606</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1218.864</v>
+      </c>
+      <c r="D6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="E6">
+        <v>284.335709069205</v>
+      </c>
+      <c r="F6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="G6">
+        <v>934.528290930795</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>2215.44</v>
       </c>
-      <c r="D2">
-        <v>0.357012769940906</v>
-      </c>
-      <c r="E2">
-        <v>790.9403710378808</v>
-      </c>
-      <c r="F2">
-        <v>0.5302458965458244</v>
-      </c>
-      <c r="G2">
-        <v>1174.727969043481</v>
-      </c>
-      <c r="H2">
-        <v>0.1127413335132695</v>
-      </c>
-      <c r="I2">
-        <v>249.7716599186379</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2215.44</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/04_pin_factor_ECE.xlsx
+++ b/output_validation/04_pin_factor_ECE.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,70 +52,61 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -531,31 +522,31 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>20673.66</v>
+        <v>10353.959</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="E2">
-        <v>20673.66</v>
+        <v>7615.347690535223</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2430.37620477479</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>239.9137765936969</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>68.32132809629007</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -566,25 +557,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>16801.022</v>
+        <v>4928.42</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1419.934132342836</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="G3">
-        <v>16801.022</v>
+        <v>3320.746537328907</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>187.7393303282567</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>4928.42</v>
+        <v>5688.031999999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3087.829090942419</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="G4">
-        <v>4928.42</v>
+        <v>2261.839033282631</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>312.9719632631346</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>25.39191251181519</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -636,31 +627,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>46961.25</v>
+        <v>9522.828</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2816.283182153036</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="G5">
-        <v>46961.25</v>
+        <v>6264.876998889738</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>336.4672320043516</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>105.2005869528733</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,31 +662,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>10353.959</v>
+        <v>20673.66</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4484.10683933812</v>
       </c>
       <c r="F6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="G6">
-        <v>7211.161090047709</v>
+        <v>15103.72227118978</v>
       </c>
       <c r="H6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="I6">
-        <v>3142.79790995229</v>
+        <v>984.7733858845155</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>101.0575035875779</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +697,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>8527.539999999999</v>
+        <v>36949.276</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26807.57822758607</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="G7">
-        <v>8527.539999999999</v>
+        <v>8759.547339853325</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1382.150432560598</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -741,31 +732,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>17357.34</v>
+        <v>11413.22</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>8845.060032059415</v>
       </c>
       <c r="F8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="G8">
-        <v>14951.51811321786</v>
+        <v>2394.598958386974</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>173.5610095536126</v>
       </c>
       <c r="J8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2405.821886782139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,25 +767,25 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>10338.72</v>
+        <v>8238.02</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="E9">
-        <v>10338.72</v>
+        <v>6233.961980152515</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1380.461349818592</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>623.596670028895</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -811,25 +802,25 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>9376.289999999999</v>
+        <v>7796.950000000001</v>
       </c>
       <c r="D10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="E10">
-        <v>3929.393323930043</v>
+        <v>6093.879807480138</v>
       </c>
       <c r="F10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="G10">
-        <v>5446.896676069957</v>
+        <v>1596.954003378181</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>106.116189141681</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -849,28 +840,28 @@
         <v>46961.25</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>36340.22578136585</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="G11">
-        <v>46961.25</v>
+        <v>8618.952924724792</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1664.219701733854</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>337.8515921754906</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -881,31 +872,31 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>11413.22</v>
+        <v>9376.289999999999</v>
       </c>
       <c r="D12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="E12">
-        <v>4410.439948150709</v>
+        <v>6338.217179594209</v>
       </c>
       <c r="F12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="G12">
-        <v>7002.780051849292</v>
+        <v>1464.452081707261</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>817.4816122489063</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>756.1391264496247</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,31 +907,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>10345.489</v>
+        <v>10338.72</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="E13">
-        <v>10345.489</v>
+        <v>4775.597773694937</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4981.886106870773</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>540.4434329664695</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>40.79268646782076</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -951,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>20673.66</v>
+        <v>10345.489</v>
       </c>
       <c r="D14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="E14">
-        <v>18897.1679835004</v>
+        <v>6805.163683273408</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2691.054424957239</v>
       </c>
       <c r="H14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="I14">
-        <v>1776.492016499599</v>
+        <v>804.9082340153011</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>44.36265775405025</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -986,25 +977,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>10353.959</v>
+        <v>16801.022</v>
       </c>
       <c r="D15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="E15">
-        <v>9464.241093124092</v>
+        <v>13734.53790115849</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2326.096200045313</v>
       </c>
       <c r="H15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="I15">
-        <v>889.7179068759074</v>
+        <v>740.3878987962001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1021,31 +1012,31 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>8527.539999999999</v>
+        <v>17357.34</v>
       </c>
       <c r="D16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="E16">
-        <v>7794.766667635</v>
+        <v>9340.351340217336</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>6903.704332751498</v>
       </c>
       <c r="H16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="I16">
-        <v>732.7733323649993</v>
+        <v>1011.460170030076</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>101.8241570010881</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1047,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>8238.02</v>
+        <v>9198.825999999999</v>
       </c>
       <c r="D17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="E17">
-        <v>2433.114378167393</v>
+        <v>7863.647808645683</v>
       </c>
       <c r="F17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="G17">
-        <v>5553.41330056664</v>
+        <v>1006.597965574677</v>
       </c>
       <c r="H17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="I17">
-        <v>251.4923212659685</v>
+        <v>328.5802257796401</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1091,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>36949.276</v>
+        <v>9002.455</v>
       </c>
       <c r="D18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="E18">
-        <v>10913.03671252017</v>
+        <v>8325.595733922644</v>
       </c>
       <c r="F18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="G18">
-        <v>24908.24260983922</v>
+        <v>327.2168930255746</v>
       </c>
       <c r="H18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="I18">
-        <v>1127.996677640615</v>
+        <v>296.4507790962244</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>53.19159395555719</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1126,25 +1117,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>9198.825999999999</v>
+        <v>8527.539999999999</v>
       </c>
       <c r="D19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="E19">
-        <v>2716.890199691194</v>
+        <v>7429.508776557233</v>
       </c>
       <c r="F19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="G19">
-        <v>6201.111754766099</v>
+        <v>727.3345930882836</v>
       </c>
       <c r="H19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="I19">
-        <v>280.8240455427086</v>
+        <v>370.6966303544827</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,31 +1194,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>2400.146000000001</v>
+        <v>1479.137</v>
       </c>
       <c r="D2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="E2">
-        <v>1728.872216365984</v>
+        <v>1051.154641452746</v>
       </c>
       <c r="F2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="G2">
-        <v>671.2737836340165</v>
+        <v>286.9990316089347</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>140.9833269383195</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1238,206 +1229,206 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>6708.75</v>
+        <v>704.0600000000001</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>231.6708903982287</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="G3">
-        <v>6708.75</v>
+        <v>425.0212052805864</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.87383343036204</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>33.49407089082285</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>2953.380000000001</v>
+        <v>812.576</v>
       </c>
       <c r="D4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="E4">
-        <v>793.3875114134935</v>
+        <v>366.8704090587336</v>
       </c>
       <c r="F4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="G4">
-        <v>1688.170745232404</v>
+        <v>381.7911158587007</v>
       </c>
       <c r="H4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="I4">
-        <v>471.8217433541023</v>
+        <v>31.7321066910642</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>32.18236839150157</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>1479.137</v>
+        <v>1360.404</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>328.9775379802998</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="G5">
-        <v>1479.137</v>
+        <v>992.3567893887684</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30.04899965578262</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.020672975149228</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>1360.404</v>
+        <v>2953.380000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>92.02516487917804</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="G6">
-        <v>1360.404</v>
+        <v>2535.8056454475</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>66.52470864561793</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>259.024481027705</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>812.576</v>
+        <v>5278.468000000001</v>
       </c>
       <c r="D7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="E7">
-        <v>445.3219896050505</v>
+        <v>1822.695071637593</v>
       </c>
       <c r="F7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="G7">
-        <v>154.2545956694279</v>
+        <v>2986.756312074079</v>
       </c>
       <c r="H7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="I7">
-        <v>147.2981422558231</v>
+        <v>312.941374266559</v>
       </c>
       <c r="J7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
       <c r="K7">
-        <v>65.70127246969857</v>
+        <v>156.0752420217703</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>1476.96</v>
+        <v>1630.46</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="E8">
-        <v>1476.96</v>
+        <v>1087.936138387196</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>423.8772148456966</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>118.6466467671073</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1448,136 +1439,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>2953.380000000001</v>
+        <v>1113.85</v>
       </c>
       <c r="D9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="E9">
-        <v>2063.343001918295</v>
+        <v>478.9759310988556</v>
       </c>
       <c r="F9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="G9">
-        <v>386.6851295382046</v>
+        <v>488.5572901394045</v>
       </c>
       <c r="H9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="I9">
-        <v>503.3518685435007</v>
+        <v>82.93398084959399</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>63.38279791214601</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>1479.137</v>
+        <v>1339.47</v>
       </c>
       <c r="D10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="E10">
-        <v>1033.381067735415</v>
+        <v>674.7707079847495</v>
       </c>
       <c r="F10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="G10">
-        <v>193.6629497219292</v>
+        <v>437.8802392648931</v>
       </c>
       <c r="H10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="I10">
-        <v>252.0929825426555</v>
+        <v>92.80019839484999</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>134.0188543555076</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>1218.22</v>
+        <v>1476.96</v>
       </c>
       <c r="D11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="E11">
-        <v>851.0945803780431</v>
+        <v>449.4177028343118</v>
       </c>
       <c r="F11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="G11">
-        <v>159.5011676472488</v>
+        <v>784.6730666936153</v>
       </c>
       <c r="H11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="I11">
-        <v>207.6242519747081</v>
+        <v>216.4174911891011</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.45173928297209</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>1176.86</v>
+        <v>2400.146000000001</v>
       </c>
       <c r="D12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="E12">
-        <v>549.7725251959376</v>
+        <v>1284.392013264919</v>
       </c>
       <c r="F12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="G12">
-        <v>513.4618347868135</v>
+        <v>1026.89890272039</v>
       </c>
       <c r="H12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="I12">
-        <v>113.6256400172491</v>
+        <v>88.85508401469143</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1588,71 +1579,36 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>5278.468000000001</v>
+        <v>2479.62</v>
       </c>
       <c r="D13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="E13">
-        <v>2465.846983945372</v>
+        <v>398.2804129508958</v>
       </c>
       <c r="F13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="G13">
-        <v>2302.98579622341</v>
+        <v>2009.568385265645</v>
       </c>
       <c r="H13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="I13">
-        <v>509.6352198312194</v>
+        <v>71.77120178345955</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>1314.118</v>
-      </c>
-      <c r="D14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="E14">
-        <v>613.8928770333218</v>
-      </c>
-      <c r="F14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="G14">
-        <v>573.3472455571417</v>
-      </c>
-      <c r="H14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="I14">
-        <v>126.8778774095367</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,31 +1662,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>352.03</v>
+        <v>739.5685000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>443.2534233954439</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="G2">
-        <v>352.03</v>
+        <v>268.950044392833</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.36503221172318</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1741,66 +1697,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>3354.375</v>
+        <v>352.03</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>57.84679014139731</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="G3">
-        <v>3354.375</v>
+        <v>255.9050890806718</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.593642708345978</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>28.68447806958493</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>1476.69</v>
+        <v>406.288</v>
       </c>
       <c r="D4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="E4">
-        <v>732.2127281450213</v>
+        <v>199.8009266680082</v>
       </c>
       <c r="F4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="G4">
-        <v>297.7534157190452</v>
+        <v>203.879399030374</v>
       </c>
       <c r="H4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="I4">
-        <v>446.7238561359339</v>
+        <v>2.607674301617921</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1811,31 +1767,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>739.5685000000001</v>
+        <v>680.202</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>276.7444808246332</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="G5">
-        <v>739.5685000000001</v>
+        <v>369.8964766350501</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>33.56104254031662</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,25 +1802,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>609.11</v>
+        <v>1476.69</v>
       </c>
       <c r="D6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="E6">
-        <v>511.9648015233501</v>
+        <v>111.6730984540955</v>
       </c>
       <c r="F6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="G6">
-        <v>97.14519847664999</v>
+        <v>1365.016901545905</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1881,31 +1837,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7">
-        <v>680.202</v>
+        <v>2639.234</v>
       </c>
       <c r="D7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="E7">
-        <v>345.4810373888521</v>
+        <v>1450.832470499735</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="G7">
-        <v>334.720962611148</v>
+        <v>1027.366764709778</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>161.0347647904869</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1919,28 +1875,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>1239.81</v>
+        <v>815.23</v>
       </c>
       <c r="D8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="E8">
-        <v>700.3249535401675</v>
+        <v>385.7713575084194</v>
       </c>
       <c r="F8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="G8">
-        <v>539.4850464598325</v>
+        <v>394.1690572621088</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>35.2895852294718</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1951,136 +1907,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>3354.375</v>
+        <v>556.9250000000001</v>
       </c>
       <c r="D9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="E9">
-        <v>1849.699815547525</v>
+        <v>156.0729015875424</v>
       </c>
       <c r="F9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="G9">
-        <v>1504.675184452476</v>
+        <v>298.9555382388128</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>75.67602100643337</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>26.22053916721142</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>1476.69</v>
+        <v>669.7350000000001</v>
       </c>
       <c r="D10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="E10">
-        <v>841.3902123303511</v>
+        <v>357.4958768054869</v>
       </c>
       <c r="F10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="G10">
-        <v>635.2997876696493</v>
+        <v>207.2923101531751</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>93.35522235435937</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.59159068697863</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>739.5685000000001</v>
+        <v>738.48</v>
       </c>
       <c r="D11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="E11">
-        <v>421.3922334734028</v>
+        <v>242.7937731011732</v>
       </c>
       <c r="F11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="G11">
-        <v>318.1762665265973</v>
+        <v>431.2464062127572</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>59.92881087219544</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.511009813874293</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>609.11</v>
+        <v>1200.073</v>
       </c>
       <c r="D12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="E12">
-        <v>347.059431724018</v>
+        <v>711.4918529225262</v>
       </c>
       <c r="F12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="G12">
-        <v>262.0505682759821</v>
+        <v>247.7977144168864</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>240.7834326605876</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2091,107 +2047,37 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>588.4300000000001</v>
+        <v>1239.81</v>
       </c>
       <c r="D13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="E13">
-        <v>66.24689011111228</v>
+        <v>454.6002725827362</v>
       </c>
       <c r="F13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="G13">
-        <v>505.1634346604705</v>
+        <v>640.7394679622215</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>78.18914806253932</v>
       </c>
       <c r="J13">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
       <c r="K13">
-        <v>17.01967522841725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2639.234</v>
-      </c>
-      <c r="D14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E14">
-        <v>297.1314256164902</v>
-      </c>
-      <c r="F14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G14">
-        <v>2265.765702484055</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K14">
-        <v>76.33687189945546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>657.0590000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E15">
-        <v>73.97331096225095</v>
-      </c>
-      <c r="F15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G15">
-        <v>564.0809972546847</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K15">
-        <v>19.00469178306444</v>
+        <v>66.28111139250302</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,212 +2130,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>4430.07</v>
+        <v>2215.44</v>
       </c>
       <c r="D2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="E2">
-        <v>1020.70224227987</v>
+        <v>709.3924490450402</v>
       </c>
       <c r="F2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="G2">
-        <v>2201.423830392015</v>
+        <v>1349.197817925839</v>
       </c>
       <c r="H2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="I2">
-        <v>1207.943927328115</v>
+        <v>150.6928850945628</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>2218.7055</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2218.7055</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>1827.33</v>
-      </c>
-      <c r="D4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="E4">
-        <v>1428.989547587782</v>
-      </c>
-      <c r="F4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="G4">
-        <v>398.3404524122181</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>2040.606</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2040.606</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>1218.864</v>
-      </c>
-      <c r="D6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="E6">
-        <v>284.335709069205</v>
-      </c>
-      <c r="F6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="G6">
-        <v>934.528290930795</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>2215.44</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2215.44</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>6.156847934557471</v>
       </c>
     </row>
   </sheetData>
